--- a/data/trans_dic/P07_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P07_R-Edad-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.02744419762066962</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.03602862100736369</v>
+        <v>0.03602862100736368</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.0669366952696866</v>
@@ -697,7 +697,7 @@
         <v>0.02453302121641345</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.05084124689305071</v>
+        <v>0.0508412468930507</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.0161583890618519</v>
+        <v>0.01595180840182699</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01853560628073774</v>
+        <v>0.01766621730139018</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01435584312956918</v>
+        <v>0.01406872911693567</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01552592036233637</v>
+        <v>0.01302933244776282</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.04768361501269883</v>
+        <v>0.04749633254379823</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.03823776529967976</v>
+        <v>0.04027303443821946</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01099368776804891</v>
+        <v>0.009690987470625688</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.03349305552926685</v>
+        <v>0.03563579029686235</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.03556976055234209</v>
+        <v>0.03565458725901426</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.03256192123247992</v>
+        <v>0.03369674163301696</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.01587497323858672</v>
+        <v>0.01615208277265164</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.02965627560203214</v>
+        <v>0.03024411229075082</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.04767310612330151</v>
+        <v>0.04578125541275722</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.04887578108372213</v>
+        <v>0.05096947873074697</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.04686523995234833</v>
+        <v>0.04599907649443941</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.0862084064484229</v>
+        <v>0.07849237935029353</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.09599996209412731</v>
+        <v>0.09293581184911365</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.08519326070206681</v>
+        <v>0.08781618010647971</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.0386706700534498</v>
+        <v>0.03769481931228595</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1189143487343468</v>
+        <v>0.1160741559607783</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.06227222581602315</v>
+        <v>0.06213057442212545</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.06087749667559342</v>
+        <v>0.06092303548493628</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.03729755845144719</v>
+        <v>0.03720857463458325</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.07874561184391315</v>
+        <v>0.08181283645665903</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.06842583969019049</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.04430357746210854</v>
+        <v>0.04430357746210853</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.07873786014376943</v>
@@ -833,7 +833,7 @@
         <v>0.05499522868636075</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.05415341771633269</v>
+        <v>0.0541534177163327</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03030667437956712</v>
+        <v>0.03034490912963742</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.04412282510225776</v>
+        <v>0.04238590305567588</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0262220618999171</v>
+        <v>0.02841491223385093</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.04116953594661368</v>
+        <v>0.04014403185924742</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.0958108490681874</v>
+        <v>0.09745029949125665</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.07314678656679491</v>
+        <v>0.07234655216427825</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.04948837594208119</v>
+        <v>0.04954961357327251</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.02806990411662445</v>
+        <v>0.02895618584975205</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.06491655514556084</v>
+        <v>0.0649138796307943</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.06198971469324382</v>
+        <v>0.06177222846562856</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.04329019972087735</v>
+        <v>0.04240385963939181</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.03955022274705222</v>
+        <v>0.0402106715904952</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.06173041144584188</v>
+        <v>0.06023407290969853</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.07977058696259071</v>
+        <v>0.08246642576015405</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.05973087129019687</v>
+        <v>0.06402262889686763</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1008916001771843</v>
+        <v>0.1003737641845066</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1474480368685106</v>
+        <v>0.1452965671051227</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1210753434420407</v>
+        <v>0.1213550829519883</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.09208952617374659</v>
+        <v>0.0913047807411299</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.0647812148866162</v>
+        <v>0.0665762674449545</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.09457834463979405</v>
+        <v>0.09463382906463452</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.09192098146961207</v>
+        <v>0.09288110185469287</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.06926306341919852</v>
+        <v>0.0690873618936103</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.07308913468035216</v>
+        <v>0.07259828139873753</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.0675866071054395</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.07024735360448899</v>
+        <v>0.07024735360448897</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.1745990595777217</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.07372975948890007</v>
+        <v>0.07311124307109906</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.07031109062713355</v>
+        <v>0.07130964796161589</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0489775626447336</v>
+        <v>0.05026132020451573</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.05077138726313998</v>
+        <v>0.05259573490171984</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1462782709134152</v>
+        <v>0.1447330691878557</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1430044223011448</v>
+        <v>0.1412496937587399</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.07971022785768622</v>
+        <v>0.08138833707354859</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.08636119316259003</v>
+        <v>0.08504843653408427</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1183168640334864</v>
+        <v>0.1193182732102549</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1125376509440521</v>
+        <v>0.1133853526357891</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.07132381151309602</v>
+        <v>0.07117797062115239</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.07335188446432699</v>
+        <v>0.07259173260769894</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1213442409793706</v>
+        <v>0.1213039709480387</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1179830818702066</v>
+        <v>0.1161329638938993</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.08849000498689899</v>
+        <v>0.09026783733332995</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.0936947477501513</v>
+        <v>0.09345613607634462</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2052213876215989</v>
+        <v>0.2043135408375963</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1997385108854389</v>
+        <v>0.1982524735342067</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1282413399754516</v>
+        <v>0.1279003488674174</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1271087437740037</v>
+        <v>0.1277895169358519</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1570936151923746</v>
+        <v>0.1576512037660529</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1506376367130038</v>
+        <v>0.1516324686517357</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1024514121377789</v>
+        <v>0.1029228486391996</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1020827857139644</v>
+        <v>0.1029297806299396</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.1812209624355277</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1600292004207337</v>
+        <v>0.1600292004207336</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.281258492838947</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1018208934284717</v>
+        <v>0.1025807940668814</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1203494152303158</v>
+        <v>0.1194312384382101</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1491334978117459</v>
+        <v>0.1504529745573356</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1302103460730183</v>
+        <v>0.1317575295785431</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2405661181188785</v>
+        <v>0.241483928315832</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2048327230184793</v>
+        <v>0.2038102002352079</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1659861857164888</v>
+        <v>0.1658876565756329</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1608986639077289</v>
+        <v>0.1622717949629482</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1809473635363972</v>
+        <v>0.182138429049311</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1698866822414136</v>
+        <v>0.1690602613866809</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1666873761826174</v>
+        <v>0.1668443791795254</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1538744034911649</v>
+        <v>0.1541106637769813</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1648716969755163</v>
+        <v>0.1660546194958045</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1819945894357585</v>
+        <v>0.1798072937873612</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2156729617111348</v>
+        <v>0.2164610515673797</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1893580185247588</v>
+        <v>0.1913718304159139</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3216985687402564</v>
+        <v>0.3231963398363767</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2736307216353797</v>
+        <v>0.2788435846565385</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2349034674858665</v>
+        <v>0.2302385022107006</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2067870321408987</v>
+        <v>0.205578379760939</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2315175022757259</v>
+        <v>0.2336174832025951</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2159072459110219</v>
+        <v>0.2172438055221367</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2131543486297314</v>
+        <v>0.2119735395354878</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1907292854142631</v>
+        <v>0.1891039161638625</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2450009803839363</v>
+        <v>0.2452007713406028</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2024657833034848</v>
+        <v>0.2054181923323709</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.206541852832558</v>
+        <v>0.2035542497698525</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2334765689809551</v>
+        <v>0.2309276720889056</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.3543673201079904</v>
+        <v>0.3465138415699081</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3314730031624435</v>
+        <v>0.3342689611335615</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.302448659003327</v>
+        <v>0.3015874118072704</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.3013419827075007</v>
+        <v>0.2990323003534976</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.3140309751526453</v>
+        <v>0.3146145432992643</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2824460372760294</v>
+        <v>0.2782286256473371</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.2657626014926528</v>
+        <v>0.2702261947453216</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2750588056292237</v>
+        <v>0.2759911011808542</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3340095782131277</v>
+        <v>0.3339949973353857</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2858876209793653</v>
+        <v>0.2888748300943286</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2876549809284936</v>
+        <v>0.2837457152224898</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2996463812581324</v>
+        <v>0.2997673412649206</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.4492852690374965</v>
+        <v>0.4479968444496359</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.4289785945853056</v>
+        <v>0.4230733207625414</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3948259415625668</v>
+        <v>0.3973340048448067</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3577880029740848</v>
+        <v>0.3573744215726132</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3801108465004695</v>
+        <v>0.3814559830651678</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3463692220500239</v>
+        <v>0.3440911540038104</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3271384629961483</v>
+        <v>0.331378527595746</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.3213022323524601</v>
+        <v>0.3203079330566916</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.3019351625978446</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.2777570835870247</v>
+        <v>0.2777570835870246</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.5849033712511212</v>
@@ -1377,7 +1377,7 @@
         <v>0.388379981769707</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.3461323004109724</v>
+        <v>0.3461323004109725</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.3273715612699153</v>
+        <v>0.3201234888592104</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.3130169594035561</v>
+        <v>0.3170362735937825</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2506916475528814</v>
+        <v>0.2544313738323418</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2400460955620373</v>
+        <v>0.242014182679948</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.5306808619671244</v>
+        <v>0.5325369226203802</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.4276541800469914</v>
+        <v>0.429188253034413</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.4139623471733386</v>
+        <v>0.4093018770544738</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.3739588749026846</v>
+        <v>0.373955026842823</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.4495538105080324</v>
+        <v>0.4550011019110719</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.3913520884165432</v>
+        <v>0.3922981268432364</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.3504153628368917</v>
+        <v>0.3515060132394392</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.3222007756178173</v>
+        <v>0.318618722789387</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.4289007078700621</v>
+        <v>0.4338043781586112</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.4298291838482866</v>
+        <v>0.4300075669745578</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.3503696988328116</v>
+        <v>0.3567977824994935</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.3146435684551628</v>
+        <v>0.3149588179382548</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.6325389210866142</v>
+        <v>0.6370236810836254</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.5293987350633043</v>
+        <v>0.5382478084889104</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.5143251400684948</v>
+        <v>0.5168216560115894</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.4401615184178224</v>
+        <v>0.4415156984591206</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.5254933117336309</v>
+        <v>0.5294101112695594</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.4683040883975838</v>
+        <v>0.4682316134292563</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.4248658149492695</v>
+        <v>0.4255296537085792</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.372277990867963</v>
+        <v>0.370123432392916</v>
       </c>
     </row>
     <row r="22">
@@ -1501,7 +1501,7 @@
         <v>0.631828014894421</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.6043994998205122</v>
+        <v>0.6043994998205121</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.6398591822395999</v>
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.4841323698738324</v>
+        <v>0.4812988147627178</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.4973478656625219</v>
+        <v>0.5008805870355489</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3898953067177844</v>
+        <v>0.3934297535024556</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.3955442659801833</v>
+        <v>0.3970938734894524</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.6396857604531766</v>
+        <v>0.6409542622801352</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.6216866021398053</v>
+        <v>0.6244340675482574</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.5729302372739934</v>
+        <v>0.5712622315666538</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.5722536907450717</v>
+        <v>0.5685234292062316</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.5954996567268043</v>
+        <v>0.6030104682889995</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.5934330353348631</v>
+        <v>0.5911644785888132</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.5193908057223057</v>
+        <v>0.5184690720367768</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.5105876834212693</v>
+        <v>0.5136744136124438</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.615765058900528</v>
+        <v>0.6142771360795147</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.6333040756018088</v>
+        <v>0.6328669392777042</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.5078538524779224</v>
+        <v>0.5105536119163846</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.485605307087526</v>
+        <v>0.4901667919916871</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.7524070582023449</v>
+        <v>0.7472960626488901</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.7208144761059528</v>
+        <v>0.7230247954953709</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.6886897160203337</v>
+        <v>0.6808812113355137</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.640261641208506</v>
+        <v>0.6351554250619562</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.6791434789658888</v>
+        <v>0.6817919628975752</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.6694150017441571</v>
+        <v>0.6710446472959782</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.5973564767237338</v>
+        <v>0.6018261439713042</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.5661736699169112</v>
+        <v>0.5678812054760339</v>
       </c>
     </row>
     <row r="25">
@@ -1637,7 +1637,7 @@
         <v>0.2387795265625872</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.2431780153402356</v>
+        <v>0.2431780153402357</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.2224187073177679</v>
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1443366462692545</v>
+        <v>0.1446178915030684</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.1541321102506827</v>
+        <v>0.1526201947139776</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1452918991516985</v>
+        <v>0.1448313245564578</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.1624415003670778</v>
+        <v>0.1605343778179076</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.2697077911959559</v>
+        <v>0.2720454620559379</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.2522697632956984</v>
+        <v>0.2526439756098749</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.2231041959526839</v>
+        <v>0.2237667378932236</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.2317100508687194</v>
+        <v>0.2314195754240313</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.2128443793144414</v>
+        <v>0.2123431289396614</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.207606824682769</v>
+        <v>0.2080451074747441</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.1890285728891344</v>
+        <v>0.1886267062401934</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.2000230596190743</v>
+        <v>0.2009125048145466</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.169698834533518</v>
+        <v>0.1693543465172622</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1810240302926411</v>
+        <v>0.180572625320316</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1698447452695475</v>
+        <v>0.1701648606579837</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.1874437028055731</v>
+        <v>0.1872600976817307</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.3022278479204258</v>
+        <v>0.301848903772208</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.2832556602068557</v>
+        <v>0.2831634205444902</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.2546073862325048</v>
+        <v>0.2539209308327107</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.2542333518005936</v>
+        <v>0.2546608644120505</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.232520888144082</v>
+        <v>0.2330465522048144</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.2288273829784732</v>
+        <v>0.2286172033633105</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.2081573632248389</v>
+        <v>0.2081357279925384</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.2172015819953718</v>
+        <v>0.2179322587593403</v>
       </c>
     </row>
     <row r="28">
@@ -2011,40 +2011,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>7983</v>
+        <v>7881</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>8404</v>
+        <v>8010</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>6008</v>
+        <v>5888</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>6331</v>
+        <v>5313</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>22292</v>
+        <v>22204</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>16451</v>
+        <v>17327</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>4351</v>
+        <v>3835</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>12142</v>
+        <v>12918</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>34202</v>
+        <v>34284</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>28772</v>
+        <v>29775</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>12926</v>
+        <v>13152</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>22844</v>
+        <v>23297</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>23554</v>
+        <v>22619</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>22160</v>
+        <v>23109</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>19613</v>
+        <v>19251</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>35155</v>
+        <v>32009</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>44879</v>
+        <v>43446</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>36653</v>
+        <v>37781</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>15304</v>
+        <v>14918</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>43108</v>
+        <v>42078</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>59878</v>
+        <v>59742</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>53793</v>
+        <v>53833</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>30370</v>
+        <v>30298</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>60658</v>
+        <v>63021</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>22290</v>
+        <v>22318</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>30259</v>
+        <v>29068</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>15484</v>
+        <v>16779</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>19633</v>
+        <v>19144</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>59929</v>
+        <v>60955</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>44567</v>
+        <v>44080</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>27889</v>
+        <v>27923</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>14084</v>
+        <v>14528</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>88350</v>
+        <v>88347</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>80282</v>
+        <v>80000</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>49959</v>
+        <v>48936</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>38705</v>
+        <v>39351</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>45402</v>
+        <v>44301</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>54706</v>
+        <v>56555</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>35271</v>
+        <v>37805</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>48114</v>
+        <v>47867</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>92228</v>
+        <v>90882</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>73769</v>
+        <v>73940</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>51896</v>
+        <v>51454</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>32503</v>
+        <v>33404</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>128719</v>
+        <v>128795</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>119045</v>
+        <v>120288</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>79932</v>
+        <v>79730</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>71527</v>
+        <v>71046</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>47009</v>
+        <v>46614</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>47876</v>
+        <v>48555</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>32771</v>
+        <v>33630</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>31521</v>
+        <v>32653</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>100895</v>
+        <v>99829</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>101235</v>
+        <v>99993</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>52719</v>
+        <v>53829</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>53765</v>
+        <v>52947</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>157045</v>
+        <v>158374</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>156295</v>
+        <v>157472</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>94895</v>
+        <v>94701</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>91205</v>
+        <v>90260</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>77367</v>
+        <v>77341</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>80336</v>
+        <v>79076</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>59208</v>
+        <v>60398</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>58169</v>
+        <v>58021</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>141550</v>
+        <v>140924</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>141398</v>
+        <v>140346</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>84817</v>
+        <v>84592</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>79132</v>
+        <v>79556</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>208515</v>
+        <v>209255</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>209209</v>
+        <v>210591</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>136310</v>
+        <v>136937</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>126929</v>
+        <v>127982</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>52860</v>
+        <v>53255</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>73602</v>
+        <v>73041</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>96052</v>
+        <v>96902</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>91228</v>
+        <v>92312</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>124046</v>
+        <v>124519</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>126218</v>
+        <v>125588</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>107738</v>
+        <v>107674</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>118564</v>
+        <v>119576</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>187242</v>
+        <v>188475</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>208582</v>
+        <v>207567</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>215551</v>
+        <v>215754</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>221195</v>
+        <v>221535</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>85593</v>
+        <v>86207</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>111303</v>
+        <v>109965</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>138908</v>
+        <v>139416</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>132667</v>
+        <v>134078</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>165881</v>
+        <v>166654</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>168611</v>
+        <v>171823</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>152470</v>
+        <v>149443</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>152378</v>
+        <v>151488</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>239572</v>
+        <v>241745</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>265085</v>
+        <v>266726</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>275639</v>
+        <v>274113</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>274174</v>
+        <v>271838</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>94744</v>
+        <v>94822</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>86945</v>
+        <v>88213</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>98504</v>
+        <v>97079</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>142268</v>
+        <v>140715</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>143159</v>
+        <v>139987</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>148434</v>
+        <v>149686</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>149941</v>
+        <v>149514</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>183474</v>
+        <v>182067</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>248303</v>
+        <v>248764</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>247770</v>
+        <v>244070</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>258500</v>
+        <v>262842</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>335077</v>
+        <v>336213</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>129165</v>
+        <v>129159</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>122768</v>
+        <v>124051</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>137188</v>
+        <v>135323</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>182588</v>
+        <v>182662</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>181505</v>
+        <v>180984</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>192097</v>
+        <v>189452</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>195737</v>
+        <v>196981</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>217841</v>
+        <v>217589</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>300552</v>
+        <v>301616</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>303845</v>
+        <v>301847</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>318199</v>
+        <v>322323</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>391411</v>
+        <v>390200</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>95783</v>
+        <v>93663</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>96661</v>
+        <v>97902</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>83814</v>
+        <v>85064</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>97718</v>
+        <v>98519</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>181989</v>
+        <v>182625</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>150984</v>
+        <v>151525</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>155536</v>
+        <v>153785</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>164230</v>
+        <v>164228</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>285699</v>
+        <v>289161</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>259018</v>
+        <v>259644</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>248815</v>
+        <v>249589</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>272661</v>
+        <v>269630</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>125489</v>
+        <v>126924</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>132733</v>
+        <v>132788</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>117139</v>
+        <v>119288</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>128085</v>
+        <v>128213</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>216919</v>
+        <v>218457</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>186905</v>
+        <v>190029</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>193245</v>
+        <v>194183</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>193304</v>
+        <v>193899</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>333960</v>
+        <v>336449</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>309949</v>
+        <v>309901</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>301679</v>
+        <v>302150</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>315039</v>
+        <v>313215</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>101611</v>
+        <v>101016</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>124263</v>
+        <v>125146</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>99852</v>
+        <v>100757</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>122697</v>
+        <v>123178</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>213596</v>
+        <v>214020</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>241823</v>
+        <v>242892</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>228065</v>
+        <v>227401</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>265874</v>
+        <v>264141</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>323827</v>
+        <v>327912</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>379103</v>
+        <v>377654</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>339769</v>
+        <v>339166</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>395607</v>
+        <v>397999</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>129239</v>
+        <v>128926</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>158232</v>
+        <v>158122</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>130061</v>
+        <v>130753</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>150634</v>
+        <v>152049</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>251235</v>
+        <v>249528</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>280382</v>
+        <v>281241</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>274145</v>
+        <v>271037</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>297471</v>
+        <v>295099</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>369312</v>
+        <v>370752</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>427642</v>
+        <v>428683</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>390771</v>
+        <v>393695</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>438675</v>
+        <v>439998</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>472769</v>
+        <v>473690</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>527094</v>
+        <v>521924</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>492469</v>
+        <v>490908</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>573867</v>
+        <v>567130</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>911396</v>
+        <v>919295</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>896430</v>
+        <v>897760</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>789635</v>
+        <v>791980</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>865742</v>
+        <v>864657</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>1416406</v>
+        <v>1413070</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>1447687</v>
+        <v>1450743</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>1309747</v>
+        <v>1306962</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>1453984</v>
+        <v>1460449</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>555842</v>
+        <v>554713</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>619058</v>
+        <v>617514</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>575691</v>
+        <v>576777</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>662194</v>
+        <v>661545</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>1021287</v>
+        <v>1020007</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>1006537</v>
+        <v>1006209</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>901135</v>
+        <v>898705</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>949897</v>
+        <v>951494</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>1547347</v>
+        <v>1550845</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>1595662</v>
+        <v>1594196</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>1442287</v>
+        <v>1442137</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>1578856</v>
+        <v>1584167</v>
       </c>
     </row>
     <row r="36">
